--- a/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
+++ b/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
@@ -5,25 +5,25 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlenon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlenon/Documents/TFE-GIT/Application Dashboard/thefraudexplorer/mods/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346FB5EC-BF22-C048-8893-5FA12BB61B2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F1685-C5EB-B648-AE82-A472BBC8D5F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12600" yWindow="2240" windowWidth="28800" windowHeight="21900" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fraud Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Fraud Triangle Report" sheetId="1" r:id="rId1"/>
     <sheet name="Chart Data" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="OpportunityEvents">'Fraud Report'!$H$9</definedName>
-    <definedName name="PressureEvents">'Fraud Report'!$H$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Fraud Report'!$18:$18</definedName>
-    <definedName name="RationalizationEvents">'Fraud Report'!$H$12</definedName>
-    <definedName name="TotalMonthlyExpenses">'Fraud Report'!$H$9</definedName>
-    <definedName name="TotalMonthlyIncome">'Fraud Report'!$H$6</definedName>
-    <definedName name="TotalMonthlySavings">'Fraud Report'!$H$12</definedName>
+    <definedName name="OpportunityEvents">'Fraud Triangle Report'!$H$9</definedName>
+    <definedName name="PressureEvents">'Fraud Triangle Report'!$H$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Fraud Triangle Report'!$18:$18</definedName>
+    <definedName name="RationalizationEvents">'Fraud Triangle Report'!$H$12</definedName>
+    <definedName name="TotalMonthlyExpenses">'Fraud Triangle Report'!$H$9</definedName>
+    <definedName name="TotalMonthlyIncome">'Fraud Triangle Report'!$H$6</definedName>
+    <definedName name="TotalMonthlySavings">'Fraud Triangle Report'!$H$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>

--- a/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
+++ b/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlenon/Documents/TFE-GIT/Application Dashboard/thefraudexplorer/mods/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A24F84-A4DB-3B4C-8DF6-5125F459BAF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61566CFD-FEC5-8D4E-94D8-251B43923596}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="2520" windowWidth="27300" windowHeight="21900" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>WORDS PROCESSED</t>
   </si>
   <si>
-    <t>NUMBER OF ENDPOINTS IN THESE EVENTS</t>
-  </si>
-  <si>
     <t>STATISTICS ABOUT ENDPOINTS</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>by flags</t>
+  </si>
+  <si>
+    <t>NUMBER OF ENDPOINTS WITH RELEVANT EVENTS</t>
   </si>
 </sst>
 </file>
@@ -495,6 +495,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -529,14 +535,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -851,7 +851,7 @@
       <pane xSplit="12" ySplit="19" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2028,19 +2028,19 @@
       <c r="ARV1" s="4"/>
     </row>
     <row r="2" spans="1:1166" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -3207,24 +3207,24 @@
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="K4" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="51"/>
+      <c r="I4" s="48"/>
+      <c r="K4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="31"/>
@@ -3239,46 +3239,46 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:1166" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="39">
+      <c r="B6" s="41">
         <f>SUM(PressureEvents+OpportunityEvents+RationalizationEvents)/3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="49">
+      <c r="H6" s="37">
         <f>COUNTIF(D20:D1000000, "PRESSURE")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="K6" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="49"/>
+      <c r="I6" s="37"/>
+      <c r="K6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="H7" s="46" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="K7" s="51" t="s">
+      <c r="I7" s="48"/>
+      <c r="K7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="51"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="K8" s="8"/>
@@ -3287,46 +3287,46 @@
       </c>
     </row>
     <row r="9" spans="1:1166" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="49">
+      <c r="H9" s="37">
         <f>COUNTIF(D20:D1000000, "OPPORTUNITY")</f>
         <v>0</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="K9" s="49">
+      <c r="I9" s="37"/>
+      <c r="K9" s="37">
         <v>450</v>
       </c>
-      <c r="L9" s="49"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="K10" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="51"/>
+      <c r="I10" s="48"/>
+      <c r="K10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="12" spans="1:1166" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="49">
+      <c r="H12" s="37">
         <f>COUNTIF(D20:D1000000, "RATIONALIZATION")</f>
         <v>0</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="K12" s="49">
-        <f>SUMPRODUCT((H20:H1000000&lt;&gt;"")/COUNTIF(H20:H1000000,H20:H1000000&amp;""))</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="49"/>
+      <c r="I12" s="37"/>
+      <c r="K12" s="37">
+        <f>SUMPRODUCT((H20:H1000000&lt;&gt;"")/COUNTIF(H20:H1000000,H20:H1000000&amp;""))-1</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="K13" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="51"/>
+      <c r="I13" s="48"/>
+      <c r="K13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -3386,20 +3386,20 @@
     </row>
     <row r="15" spans="1:1166" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="K15" s="37">
+      <c r="I15" s="50"/>
+      <c r="K15" s="39">
         <v>0</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:1166" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
@@ -3407,8 +3407,8 @@
       <c r="G16" s="9"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:1166" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17" t="s">
@@ -3429,10 +3429,10 @@
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
@@ -4613,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1166" ht="13" x14ac:dyDescent="0.15">
@@ -4698,11 +4698,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="B6:F15"/>
     <mergeCell ref="B2:L2"/>
@@ -4718,6 +4713,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>

--- a/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
+++ b/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlenon/Documents/TFE-GIT/Application Dashboard/thefraudexplorer/mods/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61566CFD-FEC5-8D4E-94D8-251B43923596}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748030C3-5A72-C244-B52F-601C112C68A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="2520" windowWidth="27300" windowHeight="21900" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="TotalMonthlyIncome">'Fraud Triangle Report'!$H$6</definedName>
     <definedName name="TotalMonthlySavings">'Fraud Triangle Report'!$H$12</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,15 +495,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -535,8 +526,17 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -851,7 +851,7 @@
       <pane xSplit="12" ySplit="19" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9:L9"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2028,19 +2028,19 @@
       <c r="ARV1" s="4"/>
     </row>
     <row r="2" spans="1:1166" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -3207,24 +3207,24 @@
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="51"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="K4" s="38" t="s">
+      <c r="I4" s="45"/>
+      <c r="K4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="31"/>
@@ -3239,46 +3239,46 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:1166" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="41">
+      <c r="B6" s="38">
         <f>SUM(PressureEvents+OpportunityEvents+RationalizationEvents)/3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="37">
+      <c r="H6" s="48">
         <f>COUNTIF(D20:D1000000, "PRESSURE")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="K6" s="37" t="s">
+      <c r="I6" s="48"/>
+      <c r="K6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="37"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="H7" s="48" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="H7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="K7" s="38" t="s">
+      <c r="I7" s="45"/>
+      <c r="K7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="K8" s="8"/>
@@ -3287,46 +3287,46 @@
       </c>
     </row>
     <row r="9" spans="1:1166" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="37">
+      <c r="H9" s="48">
         <f>COUNTIF(D20:D1000000, "OPPORTUNITY")</f>
         <v>0</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="K9" s="37">
+      <c r="I9" s="48"/>
+      <c r="K9" s="48">
         <v>450</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="K10" s="38" t="s">
+      <c r="I10" s="45"/>
+      <c r="K10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="12" spans="1:1166" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="37">
+      <c r="H12" s="48">
         <f>COUNTIF(D20:D1000000, "RATIONALIZATION")</f>
         <v>0</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="K12" s="37">
-        <f>SUMPRODUCT((H20:H1000000&lt;&gt;"")/COUNTIF(H20:H1000000,H20:H1000000&amp;""))-1</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="37"/>
+      <c r="I12" s="48"/>
+      <c r="K12" s="48">
+        <f>SUMPRODUCT((H20:H10000&lt;&gt;"")/COUNTIF(H20:H10000,H20:H10000&amp;""))</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="K13" s="38" t="s">
+      <c r="I13" s="45"/>
+      <c r="K13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -3386,20 +3386,20 @@
     </row>
     <row r="15" spans="1:1166" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="K15" s="39">
+      <c r="I15" s="47"/>
+      <c r="K15" s="51">
         <v>0</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:1166" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
@@ -3407,8 +3407,8 @@
       <c r="G16" s="9"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:1166" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17" t="s">
@@ -4698,6 +4698,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="B6:F15"/>
     <mergeCell ref="B2:L2"/>
@@ -4714,10 +4718,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>

--- a/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
+++ b/Application Dashboard/thefraudexplorer/mods/templates/Fraud_Triangle_Analytics_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlenon/Documents/TFE-GIT/Application Dashboard/thefraudexplorer/mods/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748030C3-5A72-C244-B52F-601C112C68A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1B60AC-0694-CC49-B9FE-46CB2A384B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="2520" windowWidth="27300" windowHeight="21900" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,6 +495,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -526,17 +535,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2028,19 +2028,19 @@
       <c r="ARV1" s="4"/>
     </row>
     <row r="2" spans="1:1166" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
@@ -3207,24 +3207,24 @@
       <c r="H3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="K4" s="50" t="s">
+      <c r="I4" s="48"/>
+      <c r="K4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="50"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="31"/>
@@ -3239,46 +3239,46 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:1166" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="38">
+      <c r="B6" s="41">
         <f>SUM(PressureEvents+OpportunityEvents+RationalizationEvents)/3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="48">
+      <c r="H6" s="38">
         <f>COUNTIF(D20:D1000000, "PRESSURE")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="K6" s="48" t="s">
+      <c r="I6" s="38"/>
+      <c r="K6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="H7" s="45" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="K7" s="50" t="s">
+      <c r="I7" s="48"/>
+      <c r="K7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="50"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="K8" s="8"/>
@@ -3287,46 +3287,46 @@
       </c>
     </row>
     <row r="9" spans="1:1166" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="48">
+      <c r="H9" s="38">
         <f>COUNTIF(D20:D1000000, "OPPORTUNITY")</f>
         <v>0</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="K9" s="48">
+      <c r="I9" s="38"/>
+      <c r="K9" s="38">
         <v>450</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="K10" s="50" t="s">
+      <c r="I10" s="48"/>
+      <c r="K10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3335,47 +3335,47 @@
     </row>
     <row r="12" spans="1:1166" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="48">
+      <c r="H12" s="38">
         <f>COUNTIF(D20:D1000000, "RATIONALIZATION")</f>
         <v>0</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="K12" s="48">
-        <f>SUMPRODUCT((H20:H10000&lt;&gt;"")/COUNTIF(H20:H10000,H20:H10000&amp;""))</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="48"/>
+      <c r="I12" s="38"/>
+      <c r="K12" s="38">
+        <f>SUMPRODUCT((H20:H10000&lt;&gt;"")/COUNTIF(H20:H10000,H20:H10000&amp;""))-1</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:1166" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="K13" s="50" t="s">
+      <c r="I13" s="48"/>
+      <c r="K13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="50"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:1166" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -3386,20 +3386,20 @@
     </row>
     <row r="15" spans="1:1166" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="K15" s="51">
+      <c r="I15" s="50"/>
+      <c r="K15" s="39">
         <v>0</v>
       </c>
-      <c r="L15" s="51"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:1166" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
@@ -3407,8 +3407,8 @@
       <c r="G16" s="9"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:1166" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="17" t="s">
@@ -4698,11 +4698,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="B6:F15"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="H13:I13"/>
@@ -4718,6 +4713,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
